--- a/CompactionAnalyzer/Analysis_output/Random1/Cell/results_total.xlsx
+++ b/CompactionAnalyzer/Analysis_output/Random1/Cell/results_total.xlsx
@@ -467,7 +467,7 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>Orientation  (weighted by coherency)</t>
+          <t>Orientation (weighted by coherency)</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
@@ -481,28 +481,28 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1657290144976628</v>
+        <v>0.1950115033852169</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1716021813607868</v>
+        <v>0.2029785739841129</v>
       </c>
       <c r="D2" t="n">
-        <v>41.69527851104273</v>
+        <v>42.02133420449552</v>
       </c>
       <c r="E2" t="n">
-        <v>41.4084288210424</v>
+        <v>41.80571296068504</v>
       </c>
       <c r="F2" t="n">
-        <v>42.10817259523301</v>
+        <v>43.00268325884449</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08844803180199323</v>
+        <v>0.08243883598521094</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2198937215735074</v>
+        <v>0.2235452733744825</v>
       </c>
       <c r="I2" t="n">
-        <v>0.2864929634889232</v>
+        <v>0.2930627405712678</v>
       </c>
     </row>
   </sheetData>
